--- a/Global Mean Sea Level.xlsx
+++ b/Global Mean Sea Level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60780a6e40e6ccc/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60780a6e40e6ccc/Documents/Boot Camp Activities/Project3-Climate-Change/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{85A817AE-12F5-41DA-9DDD-2B2567B42333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DCB1051F-AC97-481B-9920-E1A305AC2360}"/>
+    <workbookView xWindow="816" yWindow="1908" windowWidth="22092" windowHeight="10380" xr2:uid="{DCB1051F-AC97-481B-9920-E1A305AC2360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:M1165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
